--- a/TODOLIST.xlsx
+++ b/TODOLIST.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA796B0-86B5-42ED-8DB2-1D4AD26AD252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
-    <sheet name="côté admin" sheetId="2" r:id="rId2"/>
-    <sheet name="côté user" sheetId="3" r:id="rId3"/>
+    <sheet name="COTE ADMIN" sheetId="2" r:id="rId2"/>
+    <sheet name="CUTILISATEUR" sheetId="3" r:id="rId3"/>
+    <sheet name="TODO" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="63">
   <si>
     <t>login</t>
   </si>
@@ -39,6 +52,9 @@
     <t>cueillette(idCueillette, dateCueillette, idCueilleur, idParcelle, poids)</t>
   </si>
   <si>
+    <t>cueilleur(idCueilleur, nomCueilleur, genre, dateDeNaissance,)</t>
+  </si>
+  <si>
     <t>insertion de données dans table cueillette</t>
   </si>
   <si>
@@ -48,9 +64,6 @@
     <t>insertion de données dans table depense</t>
   </si>
   <si>
-    <t>PAGE</t>
-  </si>
-  <si>
     <t>categDepense(idCateg, nomCateg)</t>
   </si>
   <si>
@@ -75,32 +88,153 @@
     <t>cout de revient par kg (cout de production +depense)</t>
   </si>
   <si>
+    <t>varieteThe(idVariete, nomVariete)</t>
+  </si>
+  <si>
+    <t>the(idThe, nomThe, idVariete, occupation, rendement)</t>
+  </si>
+  <si>
     <t>admin(idAdmin, nomAdmin, email, pwd)</t>
   </si>
   <si>
     <t>parcelle( idPacelle, surface, idVariete)</t>
   </si>
   <si>
-    <t>the(idThe, nomThe, idVariete)</t>
-  </si>
-  <si>
-    <t>varieteThe(idVariete, nomVariete, occupation, rendement)</t>
-  </si>
-  <si>
-    <t>cueilleur(idCueilleur, nomCueilleur, genre, dateDeNaissance,email,pwd)</t>
-  </si>
-  <si>
-    <t>pour admin et utilisateur</t>
+    <t>COTE ADMIN</t>
+  </si>
+  <si>
+    <t>Gestion de variete de the</t>
+  </si>
+  <si>
+    <t>Gestion de variete de parcelle</t>
+  </si>
+  <si>
+    <t>Gestion des Ceilleur</t>
+  </si>
+  <si>
+    <t>Gestion des categ Depenses</t>
+  </si>
+  <si>
+    <t>Configuration montant Salaire par KG des ceuilleurs</t>
+  </si>
+  <si>
+    <t>nom variété de thé, occupation (ex : 1 pied occupe 1,8m2 ) , le rendement par pied ( ex : kg de feuille par mois)</t>
+  </si>
+  <si>
+    <t>APP: On veut mettre en place une application qui permet de gérer la production et la cueillette de thé.</t>
+  </si>
+  <si>
+    <t>Index login :</t>
+  </si>
+  <si>
+    <t>affichage: Formulaire de connexion</t>
+  </si>
+  <si>
+    <t>Angelo</t>
+  </si>
+  <si>
+    <t>Sarobidy</t>
+  </si>
+  <si>
+    <t>fonction :  Sign up admin +donnee de test</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Thomis</t>
+  </si>
+  <si>
+    <t>Saisie cueillette</t>
+  </si>
+  <si>
+    <t>affichage: Formulaire d'insertion cueillette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saisie depense </t>
+  </si>
+  <si>
+    <t>affichage: Formulaire d'insertion depense</t>
+  </si>
+  <si>
+    <t>affichage: Formulaire de variete the</t>
+  </si>
+  <si>
+    <t>integration AJAX</t>
+  </si>
+  <si>
+    <t>fonction: Insert cueillette+base</t>
+  </si>
+  <si>
+    <t>fonction: Insert depense+base</t>
+  </si>
+  <si>
+    <t>fonction: Insert variete+base</t>
+  </si>
+  <si>
+    <t>Gestion de the</t>
+  </si>
+  <si>
+    <t>affichage: Formulaire de the</t>
+  </si>
+  <si>
+    <t>affichage: Formulaire de parcelle</t>
+  </si>
+  <si>
+    <t>fonction: Insert the + base</t>
+  </si>
+  <si>
+    <t>Gestion de parcelle</t>
+  </si>
+  <si>
+    <t>fonction: insert parcelle+base</t>
+  </si>
+  <si>
+    <t>Gestion des Cueilleur</t>
+  </si>
+  <si>
+    <t>affichage: Formulaire de cueilleur</t>
+  </si>
+  <si>
+    <t>fonction: insert cueilleur+base</t>
+  </si>
+  <si>
+    <t>affichage: Formulaire de categ depense</t>
+  </si>
+  <si>
+    <t>affichage: Formulaire salaire</t>
+  </si>
+  <si>
+    <t>fonction: insert categDepense+base</t>
+  </si>
+  <si>
+    <t>fonction: insert salaire+base</t>
+  </si>
+  <si>
+    <t>Resultat global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affichage du resultat global </t>
+  </si>
+  <si>
+    <t>fonction: affichage resultat global</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,8 +260,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,14 +275,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +323,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -255,7 +395,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,17 +568,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.44140625" customWidth="1"/>
-    <col min="2" max="2" width="70.21875" customWidth="1"/>
+    <col min="2" max="2" width="70.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -446,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -465,22 +603,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -504,40 +642,120 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.77734375" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="43.77734375" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" customWidth="1"/>
+    <col min="3" max="3" width="50.44140625" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -545,80 +763,391 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95D4969-2DB7-4969-BEB3-FF1BDF94043E}">
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>18</v>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
